--- a/src/main/resources/excel/tcgdd.xlsx
+++ b/src/main/resources/excel/tcgdd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mexjj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D48982-CE74-401C-8863-CCF3274B8D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80B89ED-32E1-4451-9604-D52770053216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,26 +16,17 @@
     <sheet name="采购订单" sheetId="1" r:id="rId1"/>
     <sheet name="订金" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SYSTEM</author>
+    <author>tplus$</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -103,11 +94,35 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
+          <t>Clerk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>ClerkName</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
           <t>Department</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -119,30 +134,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Clerk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>ClerkName</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
@@ -211,11 +202,23 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
+          <t>priuserdefnvc2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
           <t>PayType</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +230,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>priuserdefnvc1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -311,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +374,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>PurchaseOrderDetails_OrigTaxPrice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -371,19 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>PurchaseOrderDetails_OrigTaxPrice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -426,7 +441,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SYSTEM</author>
+    <author>tplus$</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -494,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>*单据日期</t>
   </si>
@@ -508,18 +523,18 @@
     <t>供应商</t>
   </si>
   <si>
-    <t>部门编码</t>
+    <t>*业务员编码</t>
+  </si>
+  <si>
+    <t>业务员</t>
+  </si>
+  <si>
+    <t>*部门编码</t>
   </si>
   <si>
     <t>部门</t>
   </si>
   <si>
-    <t>业务员编码</t>
-  </si>
-  <si>
-    <t>业务员</t>
-  </si>
-  <si>
     <t>运输方式</t>
   </si>
   <si>
@@ -535,12 +550,18 @@
     <t>合同号</t>
   </si>
   <si>
+    <t>*含税情况</t>
+  </si>
+  <si>
     <t>付款方式</t>
   </si>
   <si>
     <t>外部单据号</t>
   </si>
   <si>
+    <t>摘要</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -574,12 +595,12 @@
     <t>折扣%</t>
   </si>
   <si>
+    <t>*含税单价</t>
+  </si>
+  <si>
     <t>*税率%</t>
   </si>
   <si>
-    <t>*含税单价</t>
-  </si>
-  <si>
     <t>*含税金额</t>
   </si>
   <si>
@@ -592,13 +613,13 @@
     <t>所属采购订单单据编号</t>
   </si>
   <si>
-    <t>*结算方式编码</t>
+    <t>结算方式编码</t>
   </si>
   <si>
     <t>结算方式</t>
   </si>
   <si>
-    <t>*账号名称</t>
+    <t>账号名称</t>
   </si>
   <si>
     <t>*订金金额</t>
@@ -621,6 +642,50 @@
   </si>
   <si>
     <t>{.djcode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.merchantcode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.departmentCode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.userCode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.taxflag}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.ckcode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.tcode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.danwei}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.fhsl}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.spdj}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.tax}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.taxAcount}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -740,13 +805,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -769,15 +837,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="12">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="12">
       <alignment wrapText="1"/>
     </xf>
@@ -1131,160 +1193,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="4.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="4.5546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="4.5546875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.33203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.33203125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="6.44140625" style="12" customWidth="1"/>
-    <col min="25" max="25" width="4.5546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="4" customWidth="1"/>
+    <col min="17" max="18" width="4.5546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="4.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="4.5546875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="4" customWidth="1"/>
     <col min="26" max="26" width="6.44140625" style="13" customWidth="1"/>
-    <col min="27" max="27" width="8.33203125" style="13" customWidth="1"/>
-    <col min="28" max="29" width="10.33203125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="12.109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.5546875" customWidth="1"/>
+    <col min="27" max="27" width="4.5546875" style="13" customWidth="1"/>
+    <col min="28" max="28" width="6.44140625" style="14" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" style="13" customWidth="1"/>
+    <col min="30" max="30" width="8.33203125" style="14" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" style="13" customWidth="1"/>
+    <col min="32" max="32" width="12.109375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
+    <row r="1" spans="1:33" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AA2" s="11" t="s">
@@ -1293,45 +1359,84 @@
       <c r="AB2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="AF2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="38">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="请录入日期类型 XXXX-XX-XX" sqref="AD3:AD65538 A4:A65538" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="46">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="请录入日期类型 XXXX-XX-XX" sqref="AF3:AF65538 A4:A65538" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>402133</formula2>
     </dataValidation>
     <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="A2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"单据日期"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您录入为空或长度超过了30" promptTitle="录入说明                           " prompt="30个字符" sqref="B3:B65538 S3:S65538 Q3:Q65538 M3:M65538 G3:G65538 E3:E65538" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您录入为空或长度超过了30" promptTitle="录入说明                           " prompt="30个字符" sqref="B3:B65538 U3:U65538 S3:S65538 M3:M65538 G3:G65538 E3:E65538" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
     <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"单据编号"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您录入为空或长度超过了50" promptTitle="录入说明                           " prompt="50个字符" sqref="C3:C65538 U3:U65538 K3:K65538" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您录入为空或长度超过了50" promptTitle="录入说明                           " prompt="50个字符" sqref="C3:C65538 W3:W65538 K3:K65538" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
@@ -1339,15 +1444,15 @@
       <formula1>"供应商"</formula1>
     </dataValidation>
     <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="F2" xr:uid="{00000000-0002-0000-0000-000007000000}">
+      <formula1>"业务员"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="H2" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"部门"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="H2" xr:uid="{00000000-0002-0000-0000-000009000000}">
-      <formula1>"业务员"</formula1>
     </dataValidation>
     <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="I2" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"运输方式"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您录入为空或长度超过了200" promptTitle="录入说明                           " prompt="200个字符" sqref="J3:J65538 O3:P65538" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您录入为空或长度超过了200" promptTitle="录入说明                           " prompt="200个字符" sqref="J3:J65538 R3:R65538 P3:P65538" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -1367,78 +1472,96 @@
     <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="M2" xr:uid="{00000000-0002-0000-0000-000012000000}">
       <formula1>"合同号"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="选择枚举" sqref="N3:N65538" xr:uid="{00000000-0002-0000-0000-000013000000}">
-      <formula1>"全额现结,全额订金,月结,限期付款,其它"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="N2" xr:uid="{00000000-0002-0000-0000-000015000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您录入为空或长度超过了500" promptTitle="录入说明                           " prompt="500个字符" sqref="N3:N65538" xr:uid="{00000000-0002-0000-0000-000013000000}">
+      <formula1>0</formula1>
+      <formula2>500</formula2>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="N2" xr:uid="{00000000-0002-0000-0000-000014000000}">
+      <formula1>"含税情况"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="选择枚举" sqref="O3:O65538" xr:uid="{00000000-0002-0000-0000-000015000000}">
+      <formula1>"全额现结,月结,全额订金,限期付款,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="O2" xr:uid="{00000000-0002-0000-0000-000017000000}">
       <formula1>"付款方式"</formula1>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="O2" xr:uid="{00000000-0002-0000-0000-000017000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="P2" xr:uid="{00000000-0002-0000-0000-000019000000}">
       <formula1>"外部单据号"</formula1>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="P2" xr:uid="{00000000-0002-0000-0000-000019000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您录入为空或长度超过了60" promptTitle="录入说明                           " prompt="60个字符" sqref="Q3:Q65538" xr:uid="{00000000-0002-0000-0000-00001A000000}">
+      <formula1>0</formula1>
+      <formula2>60</formula2>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="Q2" xr:uid="{00000000-0002-0000-0000-00001B000000}">
+      <formula1>"摘要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="R2" xr:uid="{00000000-0002-0000-0000-00001D000000}">
       <formula1>"备注"</formula1>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="Q2:R2" xr:uid="{00000000-0002-0000-0000-00001B000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="S2:T2" xr:uid="{00000000-0002-0000-0000-00001F000000}">
       <formula1>"仓库"</formula1>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="S2:T2" xr:uid="{00000000-0002-0000-0000-00001E000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="U2:V2" xr:uid="{00000000-0002-0000-0000-000022000000}">
       <formula1>"项目"</formula1>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="U2:V2" xr:uid="{00000000-0002-0000-0000-000021000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="W2:X2" xr:uid="{00000000-0002-0000-0000-000025000000}">
       <formula1>"存货名称"</formula1>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="W2" xr:uid="{00000000-0002-0000-0000-000023000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="Y2" xr:uid="{00000000-0002-0000-0000-000027000000}">
       <formula1>"采购单位"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ -99999999.99~999999999.99" sqref="X3:X65538" xr:uid="{00000000-0002-0000-0000-000024000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ -99999999.99~999999999.99" sqref="Z4:Z65538" xr:uid="{00000000-0002-0000-0000-000028000000}">
       <formula1>-99999999.99</formula1>
       <formula2>999999999.99</formula2>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="X2" xr:uid="{00000000-0002-0000-0000-000025000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000029000000}">
       <formula1>"数量"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ -999999.99~9999999.99" sqref="Y3:Y65538 AB3:AB65538" xr:uid="{00000000-0002-0000-0000-000026000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ -999999.99~9999999.99" sqref="AA3:AA65538 AC4:AC65538" xr:uid="{00000000-0002-0000-0000-00002A000000}">
       <formula1>-999999.99</formula1>
       <formula2>9999999.99</formula2>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="Y2" xr:uid="{00000000-0002-0000-0000-000027000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AA2" xr:uid="{00000000-0002-0000-0000-00002B000000}">
       <formula1>"报价"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ 0~1000000" sqref="Z3:Z65538" xr:uid="{00000000-0002-0000-0000-000028000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ 0~1000000" sqref="AB3:AB65538" xr:uid="{00000000-0002-0000-0000-00002C000000}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000029000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AB2" xr:uid="{00000000-0002-0000-0000-00002D000000}">
       <formula1>"折扣%"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ 0~100" sqref="AA3:AA65538" xr:uid="{00000000-0002-0000-0000-00002A000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AC2" xr:uid="{00000000-0002-0000-0000-00002F000000}">
+      <formula1>"含税单价"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ 0~100" sqref="AD4:AD65538" xr:uid="{00000000-0002-0000-0000-000030000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AA2" xr:uid="{00000000-0002-0000-0000-00002B000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AD2" xr:uid="{00000000-0002-0000-0000-000031000000}">
       <formula1>"税率%"</formula1>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AB2" xr:uid="{00000000-0002-0000-0000-00002D000000}">
-      <formula1>"含税单价"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ -9999999999.99~99999999999.99" sqref="AC3:AC65538" xr:uid="{00000000-0002-0000-0000-00002E000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ -9999999999.99~99999999999.99" sqref="AE4:AE65538" xr:uid="{00000000-0002-0000-0000-000032000000}">
       <formula1>-9999999999.99</formula1>
       <formula2>99999999999.99</formula2>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AC2" xr:uid="{00000000-0002-0000-0000-00002F000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AE2" xr:uid="{00000000-0002-0000-0000-000033000000}">
       <formula1>"含税金额"</formula1>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AD2" xr:uid="{00000000-0002-0000-0000-000031000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AF2" xr:uid="{00000000-0002-0000-0000-000035000000}">
       <formula1>"预计到货日期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="0-否 1-是" sqref="AE3:AE65538" xr:uid="{00000000-0002-0000-0000-000032000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="0-否 1-是" sqref="AG3:AG65538" xr:uid="{00000000-0002-0000-0000-000036000000}">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AE2" xr:uid="{00000000-0002-0000-0000-000033000000}">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="您不能修改标题" sqref="AG2" xr:uid="{00000000-0002-0000-0000-000037000000}">
       <formula1>"赠品"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="请录入日期类型 XXXX-XX-XX" sqref="A3" xr:uid="{CFD02780-22E5-43E1-899B-7A79F2AF10A0}"/>
+    <dataValidation allowBlank="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="请录入日期类型 XXXX-XX-XX" sqref="A3" xr:uid="{70F6B73A-9C17-42A8-942A-10EFF7F11DEA}"/>
+    <dataValidation allowBlank="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ -99999999.99~999999999.99" sqref="Z3" xr:uid="{FFF43685-6424-4CA7-8D01-C0F0573D48E1}"/>
+    <dataValidation allowBlank="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ -999999.99~9999999.99" sqref="AC3" xr:uid="{810C2C86-EBAD-4185-BA5B-119B15BBAB2C}"/>
+    <dataValidation allowBlank="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ 0~100" sqref="AD3" xr:uid="{C8A676FA-751A-47C3-874C-77336EA805B8}"/>
+    <dataValidation allowBlank="1" errorTitle="录入错误" error="录入不符合要求" promptTitle="录入说明                           " prompt="数字项 范围:_x000d__x000a_ -9999999999.99~99999999999.99" sqref="AE3" xr:uid="{5691EF08-B206-47BC-A864-8070AB727181}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1457,32 +1580,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>36</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
